--- a/data/descEMdata.xlsx
+++ b/data/descEMdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au161118/Dropbox/ASB/Admin stuff/Posters &amp; Papers/PAPERS/EMMA/scripts/emma/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E413422E-EC3B-B44D-9777-4B6833CB3E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2583319-31F5-0F4A-9D4D-9119715B19CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="27640" windowHeight="14580" xr2:uid="{ED90F9C8-838A-024A-A040-F13640179297}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="105">
   <si>
     <t>Study</t>
   </si>
@@ -322,6 +322,33 @@
   </si>
   <si>
     <t>9 options</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 1</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 2</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 3</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 4</t>
+  </si>
+  <si>
+    <t>Waestlund et al. 2015 Study 2</t>
+  </si>
+  <si>
+    <t>Waestlund et al. 2015 Study 3</t>
+  </si>
+  <si>
+    <t>Wolfson et al. 2017</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2013</t>
+  </si>
+  <si>
+    <t>Meissner et al. 2016b</t>
   </si>
 </sst>
 </file>
@@ -678,7 +705,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="199" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1293,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
         <v>43</v>
@@ -1466,7 +1493,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
         <v>43</v>
@@ -1474,7 +1501,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
         <v>43</v>
@@ -1482,7 +1509,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
         <v>43</v>
@@ -1490,7 +1517,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
         <v>43</v>
@@ -1498,7 +1525,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -1610,7 +1637,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
@@ -1618,7 +1645,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
@@ -1626,7 +1653,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
